--- a/year/2025/11w/VOC 11w 신제품 원본.xlsx
+++ b/year/2025/11w/VOC 11w 신제품 원본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\year\2025\11w\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5757A43E-5EC3-47DB-AFC6-3FBA95B79CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166534E-FB67-4156-A8C4-CE1624AB5DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C3747590-BCF3-4C46-90CA-AAB57FFA794F}"/>
   </bookViews>
@@ -2895,8 +2895,8 @@
   <dimension ref="A1:M3123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3197,38 +3197,38 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
-        <v>45726</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="12">
         <v>13</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
+      <c r="J8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="L8" s="13">
         <v>1</v>
@@ -3238,37 +3238,37 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>45729</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>40</v>
+      <c r="H9" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="12">
-        <v>13</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="13">
@@ -3280,7 +3280,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B10" s="15">
         <v>5</v>
@@ -3289,7 +3289,7 @@
         <v>45729</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>13</v>
@@ -3298,19 +3298,19 @@
         <v>14</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I10" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -3321,34 +3321,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B11" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="11">
-        <v>45729</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>45726</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I11" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>18</v>
@@ -3362,16 +3362,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15">
         <v>5</v>
       </c>
       <c r="C12" s="16">
-        <v>45725</v>
+        <v>45729</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>13</v>
@@ -3380,19 +3380,19 @@
         <v>14</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I12" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
@@ -3403,16 +3403,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B13" s="15">
         <v>5</v>
       </c>
       <c r="C13" s="16">
-        <v>45727</v>
+        <v>45726</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>13</v>
@@ -3421,19 +3421,19 @@
         <v>14</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I13" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L13" s="21">
         <v>1</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B14" s="15">
         <v>5</v>
       </c>
       <c r="C14" s="16">
-        <v>45729</v>
+        <v>45727</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>12</v>
@@ -3465,13 +3465,13 @@
         <v>15</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I14" s="12">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>18</v>
@@ -3484,14 +3484,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="10">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11">
-        <v>45726</v>
+      <c r="A15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>45730</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>12</v>
@@ -3505,16 +3505,16 @@
       <c r="G15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>61</v>
+      <c r="H15" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="I15" s="12">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="20">
@@ -3525,38 +3525,38 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="16">
-        <v>45729</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="11">
+        <v>45725</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>63</v>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="I16" s="12">
-        <v>16</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L16" s="21">
         <v>0</v>
@@ -3565,39 +3565,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="15">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="16">
-        <v>45725</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="11">
+        <v>45726</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>66</v>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="I17" s="12">
-        <v>17</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L17" s="20">
         <v>0</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B18" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="16">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>12</v>
@@ -3629,13 +3629,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I18" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>18</v>
@@ -3648,38 +3648,38 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="15">
-        <v>4</v>
-      </c>
-      <c r="C19" s="16">
-        <v>45726</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="A19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45731</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>72</v>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="I19" s="12">
-        <v>20</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
@@ -3689,37 +3689,37 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="15">
+      <c r="A20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="10">
         <v>5</v>
       </c>
-      <c r="C20" s="16">
-        <v>45726</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="11">
+        <v>45730</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>75</v>
+      <c r="H20" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="I20" s="12">
-        <v>20</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="13">
@@ -3729,38 +3729,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="15">
+    <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="10">
         <v>5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="11">
         <v>45727</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>78</v>
+      <c r="H21" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="I21" s="12">
-        <v>23</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="13">
@@ -3770,15 +3770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B22" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="16">
-        <v>45730</v>
+        <v>45727</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>12</v>
@@ -3793,13 +3793,13 @@
         <v>15</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="I22" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>18</v>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B23" s="10">
         <v>5</v>
       </c>
       <c r="C23" s="11">
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>12</v>
@@ -3834,13 +3834,13 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="I23" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>18</v>
@@ -3852,38 +3852,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="10">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="15">
         <v>5</v>
       </c>
-      <c r="C24" s="11">
-        <v>45726</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="16">
+        <v>45728</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>87</v>
+      <c r="H24" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="I24" s="12">
-        <v>24</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="13">
@@ -3894,38 +3894,38 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="A25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="10">
         <v>5</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="11">
         <v>45730</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>90</v>
+      <c r="G25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="I25" s="12">
-        <v>25</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3934,15 +3934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B26" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="16">
-        <v>45730</v>
+        <v>45726</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>12</v>
@@ -3957,13 +3957,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="I26" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>18</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="11">
-        <v>45731</v>
+        <v>45730</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>12</v>
@@ -3998,13 +3998,13 @@
         <v>15</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="I27" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>18</v>
@@ -4017,38 +4017,38 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="10">
         <v>5</v>
       </c>
-      <c r="C28" s="16">
-        <v>45730</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="11">
+        <v>45731</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="12">
         <v>43</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="12">
-        <v>26</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>46</v>
+      <c r="J28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -4057,38 +4057,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10">
+    <row r="29" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="15">
         <v>5</v>
       </c>
-      <c r="C29" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>101</v>
+      <c r="H29" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="I29" s="12">
-        <v>27</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="13">
@@ -4098,18 +4098,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B30" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="16">
-        <v>45729</v>
+        <v>45725</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -4118,19 +4118,19 @@
         <v>14</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I30" s="12">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -4139,38 +4139,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="10">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11">
-        <v>45727</v>
-      </c>
-      <c r="D31" s="18" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>4</v>
+      </c>
+      <c r="C31" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>107</v>
+      <c r="H31" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="I31" s="12">
-        <v>29</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="13">
@@ -4181,38 +4181,38 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="10">
-        <v>4</v>
-      </c>
-      <c r="C32" s="11">
-        <v>45727</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="15">
+        <v>5</v>
+      </c>
+      <c r="C32" s="16">
+        <v>45730</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>109</v>
+      <c r="G32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="I32" s="12">
-        <v>30</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B33" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="16">
-        <v>45727</v>
+        <v>45725</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>12</v>
@@ -4244,13 +4244,13 @@
         <v>15</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I33" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>18</v>
@@ -4263,37 +4263,37 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="A34" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="15">
         <v>5</v>
       </c>
-      <c r="C34" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>114</v>
+      <c r="H34" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="I34" s="12">
-        <v>31</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="13">
@@ -4305,13 +4305,13 @@
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B35" s="15">
         <v>5</v>
       </c>
       <c r="C35" s="16">
-        <v>45728</v>
+        <v>45727</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>12</v>
@@ -4326,13 +4326,13 @@
         <v>15</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="I35" s="12">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>18</v>
@@ -4346,34 +4346,34 @@
     </row>
     <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B36" s="10">
         <v>5</v>
       </c>
       <c r="C36" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D36" s="18" t="s">
+        <v>45729</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>120</v>
+      <c r="H36" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="I36" s="12">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>18</v>
@@ -4385,39 +4385,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="15">
+    <row r="37" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="10">
         <v>5</v>
       </c>
-      <c r="C37" s="16">
-        <v>45726</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="11">
+        <v>45730</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>122</v>
+      <c r="H37" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="I37" s="12">
-        <v>35</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>18</v>
+        <v>101</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4426,38 +4426,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="10">
+    <row r="38" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="15">
         <v>5</v>
       </c>
-      <c r="C38" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="16">
+        <v>45731</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>125</v>
+      <c r="H38" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="I38" s="12">
-        <v>39</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="13">
@@ -4467,36 +4467,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B39" s="10">
         <v>5</v>
       </c>
       <c r="C39" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D39" s="18" t="s">
+        <v>45730</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>127</v>
+      <c r="H39" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="I39" s="12">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>18</v>
@@ -4508,38 +4508,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="15">
+    <row r="40" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="10">
         <v>5</v>
       </c>
-      <c r="C40" s="16">
-        <v>45729</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="11">
+        <v>45728</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>129</v>
+      <c r="H40" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="I40" s="12">
-        <v>44</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="13">
@@ -4549,38 +4549,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="15">
-        <v>5</v>
-      </c>
-      <c r="C41" s="16">
-        <v>45725</v>
-      </c>
-      <c r="D41" s="14" t="s">
+    <row r="41" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>45731</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>131</v>
+      <c r="H41" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="I41" s="12">
-        <v>53</v>
-      </c>
-      <c r="J41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="13">
@@ -4591,38 +4591,38 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="10">
+      <c r="A42" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="15">
         <v>5</v>
       </c>
-      <c r="C42" s="11">
-        <v>45729</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="C42" s="16">
+        <v>45728</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>133</v>
+      <c r="G42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="I42" s="12">
-        <v>53</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>46</v>
+        <v>109</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
@@ -4631,9 +4631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B43" s="15">
         <v>5</v>
@@ -4641,29 +4641,29 @@
       <c r="C43" s="16">
         <v>45727</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>43</v>
+      <c r="G43" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="I43" s="12">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4672,38 +4672,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="10">
         <v>4</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="11">
         <v>45729</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>138</v>
+      <c r="H44" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="I44" s="12">
-        <v>60</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K44" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L44" s="13">
@@ -4713,39 +4713,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="15">
+    <row r="45" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="10">
         <v>5</v>
       </c>
-      <c r="C45" s="16">
-        <v>45730</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="11">
+        <v>45731</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="14" t="s">
+      <c r="F45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>141</v>
+      <c r="H45" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="I45" s="12">
-        <v>60</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="L45" s="13">
         <v>1</v>
@@ -4754,38 +4754,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="15">
+    <row r="46" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="10">
         <v>5</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="11">
         <v>45725</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>142</v>
+      <c r="H46" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="I46" s="12">
-        <v>64</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K46" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="13">
@@ -4797,13 +4797,13 @@
     </row>
     <row r="47" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="B47" s="15">
         <v>5</v>
       </c>
       <c r="C47" s="16">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>12</v>
@@ -4818,13 +4818,13 @@
         <v>15</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="I47" s="12">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="K47" s="14" t="s">
         <v>18</v>
@@ -4836,39 +4836,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="15">
+    <row r="48" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="10">
         <v>5</v>
       </c>
-      <c r="C48" s="16">
-        <v>45727</v>
+      <c r="C48" s="11">
+        <v>45731</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>145</v>
+        <v>15</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="I48" s="12">
-        <v>79</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>46</v>
+        <v>133</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="L48" s="13">
         <v>0</v>
@@ -4877,39 +4877,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="15">
+    <row r="49" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="10">
         <v>5</v>
       </c>
-      <c r="C49" s="16">
-        <v>45727</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="11">
+        <v>45730</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="14" t="s">
+      <c r="F49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>148</v>
+      <c r="H49" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="I49" s="12">
-        <v>82</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>18</v>
+        <v>135</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="L49" s="13">
         <v>0</v>
@@ -4918,38 +4918,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="10">
+    <row r="50" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="15">
         <v>5</v>
       </c>
-      <c r="C50" s="11">
-        <v>45729</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="16">
+        <v>45728</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>151</v>
+      <c r="H50" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="I50" s="12">
-        <v>84</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="13">
@@ -4959,39 +4959,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="10">
+    <row r="51" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="15">
         <v>5</v>
       </c>
-      <c r="C51" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="C51" s="16">
+        <v>45728</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>154</v>
+      <c r="F51" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="I51" s="12">
-        <v>87</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>46</v>
+        <v>142</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="L51" s="13">
         <v>0</v>
@@ -5000,39 +5000,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B52" s="10">
         <v>5</v>
       </c>
       <c r="C52" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D52" s="9" t="s">
+        <v>45727</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="F52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I52" s="12">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="L52" s="13">
         <v>0</v>
@@ -5041,15 +5041,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B53" s="15">
         <v>5</v>
       </c>
       <c r="C53" s="16">
-        <v>45731</v>
+        <v>45725</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>12</v>
@@ -5064,13 +5064,13 @@
         <v>15</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="I53" s="12">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="K53" s="14" t="s">
         <v>18</v>
@@ -5082,15 +5082,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B54" s="10">
         <v>5</v>
       </c>
       <c r="C54" s="11">
-        <v>45730</v>
+        <v>45728</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>12</v>
@@ -5099,22 +5099,22 @@
         <v>13</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="I54" s="12">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="L54" s="13">
         <v>0</v>
@@ -5123,39 +5123,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="10">
+    <row r="55" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="22">
         <v>5</v>
       </c>
       <c r="C55" s="11">
         <v>45728</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="F55" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I55" s="12">
-        <v>105</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>18</v>
+      <c r="H55" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="24">
+        <v>178</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="L55" s="13">
         <v>0</v>
@@ -5164,38 +5164,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="10">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D56" s="9" t="s">
+    <row r="56" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="27">
+        <v>5</v>
+      </c>
+      <c r="C56" s="28">
+        <v>45730</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I56" s="12">
-        <v>108</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K56" s="9" t="s">
+      <c r="H56" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" s="24">
+        <v>194</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K56" s="29" t="s">
         <v>18</v>
       </c>
       <c r="L56" s="13">
@@ -5205,38 +5205,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="15">
+    <row r="57" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="31">
         <v>5</v>
       </c>
       <c r="C57" s="16">
         <v>45728</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I57" s="12">
-        <v>109</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="H57" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" s="24">
+        <v>197</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="21" t="s">
         <v>18</v>
       </c>
       <c r="L57" s="13">
@@ -5246,38 +5246,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="15">
+    <row r="58" spans="1:13" ht="198" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="22">
         <v>5</v>
       </c>
-      <c r="C58" s="16">
-        <v>45727</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="11">
+        <v>45731</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="12">
-        <v>116</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K58" s="14" t="s">
+      <c r="H58" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="24">
+        <v>371</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L58" s="13">
@@ -5287,39 +5287,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="10">
-        <v>4</v>
-      </c>
-      <c r="C59" s="11">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="15">
+        <v>5</v>
+      </c>
+      <c r="C59" s="16">
         <v>45729</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>177</v>
+      <c r="G59" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="I59" s="12">
-        <v>116</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L59" s="13">
         <v>0</v>
@@ -5328,39 +5328,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="10">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="15">
         <v>5</v>
       </c>
-      <c r="C60" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="C60" s="16">
+        <v>45727</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="9" t="s">
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="12">
         <v>15</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I60" s="12">
-        <v>116</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>160</v>
+      <c r="J60" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L60" s="13">
         <v>0</v>
@@ -5369,39 +5369,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="10">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="15">
         <v>5</v>
       </c>
-      <c r="C61" s="11">
-        <v>45725</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="18" t="s">
+      <c r="C61" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>181</v>
+      <c r="G61" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="I61" s="12">
-        <v>126</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L61" s="13">
         <v>1</v>
@@ -5410,9 +5410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="B62" s="15">
         <v>5</v>
@@ -5421,7 +5421,7 @@
         <v>45730</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>13</v>
@@ -5430,19 +5430,19 @@
         <v>14</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="I62" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L62" s="13">
         <v>0</v>
@@ -5451,39 +5451,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="10">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="15">
         <v>5</v>
       </c>
-      <c r="C63" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="C63" s="16">
+        <v>45730</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>186</v>
+      <c r="F63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="I63" s="12">
-        <v>133</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>160</v>
+        <v>26</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L63" s="13">
         <v>0</v>
@@ -5492,39 +5492,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="10">
-        <v>5</v>
-      </c>
-      <c r="C64" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="9" t="s">
+    <row r="64" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="15">
+        <v>4</v>
+      </c>
+      <c r="C64" s="16">
+        <v>45729</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>189</v>
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="I64" s="12">
-        <v>135</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>160</v>
+        <v>28</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L64" s="13">
         <v>0</v>
@@ -5533,39 +5533,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="15">
-        <v>5</v>
-      </c>
-      <c r="C65" s="16">
-        <v>45728</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="14" t="s">
+    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="10">
+        <v>4</v>
+      </c>
+      <c r="C65" s="11">
+        <v>45727</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>191</v>
+      <c r="G65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="I65" s="12">
-        <v>137</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L65" s="13">
         <v>1</v>
@@ -5575,38 +5575,38 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="15">
+      <c r="A66" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="10">
         <v>5</v>
       </c>
-      <c r="C66" s="16">
-        <v>45728</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="C66" s="11">
+        <v>45729</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>194</v>
+      <c r="F66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="I66" s="12">
-        <v>142</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L66" s="13">
         <v>0</v>
@@ -5615,18 +5615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="10">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="15">
         <v>5</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="16">
         <v>45727</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>13</v>
@@ -5635,19 +5635,19 @@
         <v>14</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>197</v>
+        <v>43</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="I67" s="12">
-        <v>150</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="L67" s="13">
         <v>1</v>
@@ -5656,39 +5656,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="B68" s="15">
         <v>5</v>
       </c>
       <c r="C68" s="16">
-        <v>45725</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="14" t="s">
+        <v>45727</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>15</v>
+      <c r="G68" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="I68" s="12">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L68" s="13">
         <v>0</v>
@@ -5697,39 +5697,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B69" s="10">
         <v>5</v>
       </c>
       <c r="C69" s="11">
-        <v>45728</v>
+        <v>45730</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="I69" s="12">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="L69" s="13">
         <v>0</v>
@@ -5738,39 +5738,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B70" s="22">
         <v>5</v>
       </c>
       <c r="C70" s="11">
-        <v>45728</v>
+        <v>45730</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I70" s="24">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="L70" s="13">
         <v>0</v>
@@ -5779,39 +5779,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B71" s="27">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="10">
         <v>5</v>
       </c>
-      <c r="C71" s="28">
-        <v>45730</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="C71" s="11">
+        <v>45726</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I71" s="24">
-        <v>194</v>
-      </c>
-      <c r="J71" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="K71" s="29" t="s">
-        <v>18</v>
+      <c r="G71" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="12">
+        <v>13</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="L71" s="13">
         <v>0</v>
@@ -5820,39 +5820,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="31">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="15">
         <v>5</v>
       </c>
       <c r="C72" s="16">
-        <v>45728</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="20" t="s">
+        <v>45725</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="12">
         <v>15</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="I72" s="24">
-        <v>197</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>18</v>
+      <c r="J72" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="L72" s="13">
         <v>0</v>
@@ -5861,39 +5861,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" s="22">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="15">
         <v>5</v>
       </c>
-      <c r="C73" s="11">
-        <v>45730</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="C73" s="16">
+        <v>45725</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I73" s="24">
-        <v>251</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K73" s="25" t="s">
-        <v>46</v>
+      <c r="G73" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="12">
+        <v>17</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="L73" s="13">
         <v>0</v>
@@ -5902,39 +5902,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B74" s="22">
-        <v>5</v>
-      </c>
-      <c r="C74" s="11">
-        <v>45731</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="20" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="15">
+        <v>4</v>
+      </c>
+      <c r="C74" s="16">
+        <v>45726</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" s="24">
-        <v>371</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K74" s="25" t="s">
-        <v>18</v>
+      <c r="G74" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="12">
+        <v>20</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="L74" s="13">
         <v>0</v>
@@ -28806,7 +28806,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K9" xr:uid="{6637C323-9589-4025-B034-352156932AF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K74">
       <sortCondition ref="G1:G9"/>
     </sortState>
   </autoFilter>
